--- a/Bu Account 2023/BU Accounts 31.01.23.xlsx
+++ b/Bu Account 2023/BU Accounts 31.01.23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Main\BU\Bu Account 22.12.21\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\Only-My\Bu Account 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829A79E7-EC5C-4A15-A6D2-7D287FA77C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837917DA-DB57-4E6A-8360-5A794F9BFF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="752" xr2:uid="{2573D83B-F11A-4879-AC74-1152F3DD4E44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" xr2:uid="{2573D83B-F11A-4879-AC74-1152F3DD4E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3267,7 +3272,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3723,8 +3728,8 @@
   <dimension ref="A1:AK507"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J497" sqref="J497"/>
+      <pane ySplit="2" topLeftCell="A487" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D498" sqref="D498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3761,7 +3766,7 @@
       <c r="B1" s="21"/>
       <c r="C1" s="44">
         <f>SUBTOTAL(3,C3:C507)</f>
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="11"/>
@@ -20543,6 +20548,9 @@
       <c r="B490" s="22">
         <v>44933</v>
       </c>
+      <c r="C490" s="9">
+        <v>488</v>
+      </c>
       <c r="D490" s="10" t="s">
         <v>218</v>
       </c>
@@ -20575,6 +20583,9 @@
       <c r="B491" s="22">
         <v>44934</v>
       </c>
+      <c r="C491" s="9">
+        <v>489</v>
+      </c>
       <c r="D491" s="10" t="s">
         <v>56</v>
       </c>
@@ -20607,6 +20618,9 @@
       <c r="B492" s="22">
         <v>44935</v>
       </c>
+      <c r="C492" s="9">
+        <v>490</v>
+      </c>
       <c r="D492" s="10" t="s">
         <v>440</v>
       </c>
@@ -20637,6 +20651,9 @@
       <c r="B493" s="22">
         <v>44935</v>
       </c>
+      <c r="C493" s="9">
+        <v>491</v>
+      </c>
       <c r="D493" s="10" t="s">
         <v>94</v>
       </c>
@@ -20667,6 +20684,9 @@
       <c r="B494" s="22">
         <v>44935</v>
       </c>
+      <c r="C494" s="9">
+        <v>492</v>
+      </c>
       <c r="D494" s="10" t="s">
         <v>123</v>
       </c>
@@ -20697,6 +20717,9 @@
       <c r="B495" s="22">
         <v>44935</v>
       </c>
+      <c r="C495" s="9">
+        <v>493</v>
+      </c>
       <c r="D495" s="10" t="s">
         <v>96</v>
       </c>
@@ -20726,6 +20749,9 @@
     <row r="496" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B496" s="22">
         <v>44936</v>
+      </c>
+      <c r="C496" s="9">
+        <v>494</v>
       </c>
       <c r="D496" s="10" t="s">
         <v>107</v>
@@ -21071,7 +21097,7 @@
       </c>
       <c r="H3" s="53">
         <f ca="1">G3-TODAY()</f>
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
@@ -21103,7 +21129,7 @@
       </c>
       <c r="H4" s="53">
         <f t="shared" ref="H4:H24" ca="1" si="0">G4-TODAY()</f>
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
@@ -21135,7 +21161,7 @@
       </c>
       <c r="H5" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
@@ -21167,7 +21193,7 @@
       </c>
       <c r="H6" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -21199,7 +21225,7 @@
       </c>
       <c r="H7" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
@@ -21231,7 +21257,7 @@
       </c>
       <c r="H8" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
@@ -21263,7 +21289,7 @@
       </c>
       <c r="H9" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-18</v>
+        <v>-28</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="53"/>
@@ -21295,7 +21321,7 @@
       </c>
       <c r="H10" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
@@ -21327,7 +21353,7 @@
       </c>
       <c r="H11" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
@@ -21357,7 +21383,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-44938</v>
+        <v>-44948</v>
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
@@ -21389,7 +21415,7 @@
       </c>
       <c r="H13" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
@@ -21421,7 +21447,7 @@
       </c>
       <c r="H14" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-38</v>
+        <v>-48</v>
       </c>
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
@@ -21453,7 +21479,7 @@
       </c>
       <c r="H15" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="I15" s="53"/>
       <c r="J15" s="53"/>
@@ -21483,7 +21509,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-44938</v>
+        <v>-44948</v>
       </c>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
@@ -21513,7 +21539,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-44938</v>
+        <v>-44948</v>
       </c>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
@@ -21545,7 +21571,7 @@
       </c>
       <c r="H18" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="I18" s="53"/>
       <c r="J18" s="53"/>
@@ -21577,7 +21603,7 @@
       </c>
       <c r="H19" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
@@ -21609,7 +21635,7 @@
       </c>
       <c r="H20" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-63</v>
+        <v>-73</v>
       </c>
       <c r="I20" s="53"/>
       <c r="J20" s="53"/>
@@ -21641,7 +21667,7 @@
       </c>
       <c r="H21" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
@@ -21673,7 +21699,7 @@
       </c>
       <c r="H22" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
@@ -21705,7 +21731,7 @@
       </c>
       <c r="H23" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-17</v>
+        <v>-27</v>
       </c>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
@@ -21737,7 +21763,7 @@
       </c>
       <c r="H24" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="I24" s="59"/>
       <c r="J24" s="59"/>
@@ -21766,7 +21792,7 @@
       </c>
       <c r="H25" s="59">
         <f ca="1">G25-TODAY()</f>
-        <v>-44938</v>
+        <v>-44948</v>
       </c>
       <c r="I25" s="59"/>
       <c r="J25" s="59"/>

--- a/Bu Account 2023/BU Accounts 31.01.23.xlsx
+++ b/Bu Account 2023/BU Accounts 31.01.23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\Only-My\Bu Account 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Only-My\Bu Account 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837917DA-DB57-4E6A-8360-5A794F9BFF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E796BF-7073-4B70-AC61-D7CB7D54D927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" xr2:uid="{2573D83B-F11A-4879-AC74-1152F3DD4E44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="752" xr2:uid="{2573D83B-F11A-4879-AC74-1152F3DD4E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="4" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="453">
   <si>
     <t>Date</t>
   </si>
@@ -1370,6 +1359,36 @@
   </si>
   <si>
     <t>KingFisher</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>December+January</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>Neaz+Aman</t>
+  </si>
+  <si>
+    <t>Neaz(6 Days) = 2090 (up+Down+food), Aman (1day)= 550 (Up+Down+food)</t>
+  </si>
+  <si>
+    <t>Up+down = 1440, Food = 160.</t>
+  </si>
+  <si>
+    <t>Up+Down = 1736,Food Gift 3rd party=700, food= 500</t>
+  </si>
+  <si>
+    <t>Up+Down = 1470, Food = 715.</t>
+  </si>
+  <si>
+    <t>Up+Down = 1665, Food = 560</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1736,11 +1755,68 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="79">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF583E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -2603,52 +2679,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF583E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3272,7 +3302,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3305,11 +3335,6 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3324,105 +3349,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4ABDBDD3-9322-4B87-BDF7-52B7119C6521}" name="Table112" displayName="Table112" ref="B2:N507" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
-  <autoFilter ref="B2:N507" xr:uid="{C3EA9AF6-F3C7-400E-BA9D-418C7DE32656}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4ABDBDD3-9322-4B87-BDF7-52B7119C6521}" name="Table112" displayName="Table112" ref="B2:N523" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="B2:N523" xr:uid="{C3EA9AF6-F3C7-400E-BA9D-418C7DE32656}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{605A2E63-A19A-419A-9576-780B6DEFB7F2}" name="Date" dataDxfId="75"/>
-    <tableColumn id="13" xr3:uid="{F255DD77-1C6A-40BC-BDBF-DB9D7F704E03}" name="SL#" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{2F41E740-847A-4DED-90E0-78C4AE05A547}" name="User ID" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{956850E4-173B-4AC9-8962-956328C5EFB4}" name="User Name" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{605A2E63-A19A-419A-9576-780B6DEFB7F2}" name="Date" dataDxfId="76"/>
+    <tableColumn id="13" xr3:uid="{F255DD77-1C6A-40BC-BDBF-DB9D7F704E03}" name="SL#" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{2F41E740-847A-4DED-90E0-78C4AE05A547}" name="User ID" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{956850E4-173B-4AC9-8962-956328C5EFB4}" name="User Name" dataDxfId="73">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{89452262-E9EE-4DD5-966B-F978361A711B}" name="Subject" dataDxfId="71"/>
-    <tableColumn id="12" xr3:uid="{D7B18B9D-8D64-4A9A-97E8-7B6CCCC76C0E}" name="Description" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{2E7D3A58-0DB3-4DF8-B091-57B461C4E8BE}" name="Column1" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{5F21252E-E601-4FE5-80F3-68B039E6D932}" name="3rd Party" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{2DBC9C2F-9F2F-4684-8EA9-3B2396738E5E}" name="Collection" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{0EB3DA7C-EB75-4D6E-99E8-13D7A6396E0E}" name="Cost" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{BD533F0E-891D-42CC-94B9-C4D204322C1A}" name="Balance" dataDxfId="65">
+    <tableColumn id="11" xr3:uid="{89452262-E9EE-4DD5-966B-F978361A711B}" name="Subject" dataDxfId="72"/>
+    <tableColumn id="12" xr3:uid="{D7B18B9D-8D64-4A9A-97E8-7B6CCCC76C0E}" name="Description" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{2E7D3A58-0DB3-4DF8-B091-57B461C4E8BE}" name="Column1" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{5F21252E-E601-4FE5-80F3-68B039E6D932}" name="3rd Party" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{2DBC9C2F-9F2F-4684-8EA9-3B2396738E5E}" name="Collection" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{0EB3DA7C-EB75-4D6E-99E8-13D7A6396E0E}" name="Cost" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{BD533F0E-891D-42CC-94B9-C4D204322C1A}" name="Balance" dataDxfId="66">
       <calculatedColumnFormula>J3-K3-Table112[[#This Row],[3rd Party]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8FE6B27B-95FF-4EB4-8225-19876F313AF5}" name="Close" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{F7802688-3E2C-4D09-8CDF-F7F44AE84700}" name="Remarks" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{8FE6B27B-95FF-4EB4-8225-19876F313AF5}" name="Close" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{F7802688-3E2C-4D09-8CDF-F7F44AE84700}" name="Remarks" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{11D660CE-7C8D-4FBF-B844-4F942A0126BE}" name="Table7" displayName="Table7" ref="R2:AK67" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{11D660CE-7C8D-4FBF-B844-4F942A0126BE}" name="Table7" displayName="Table7" ref="R2:AK67" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="R2:AK67" xr:uid="{7D474A21-C85E-49CF-A7F2-6F681185ED25}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{125EB3B8-2ED1-4D7D-8BCD-F51293B75AAB}" name="Column1" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{51A38D9B-4BD5-4D0C-9AD6-A8DB31A11C8C}" name="Column2" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{4822773B-90AA-45BE-8491-22442303AC78}" name="Column3" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{14817EC6-BD9C-4F45-9EA1-6F2835E821C6}" name="Column32" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{9191CA77-AC96-4850-B852-AEF19E5AE7F6}" name="Column4" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{19C136D9-C56C-4C43-A09B-0611EF259F4A}" name="Column5" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{F2D38A70-179C-466A-9C9C-62B0159C9EA4}" name="Column6" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{BD6AEF60-959E-40EB-A115-94FCCE30E902}" name="Column7" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{690B6EA3-DCE8-4673-9536-DF6C941E91B6}" name="Column8" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{D888861D-40D0-4BA1-A82D-3EA2B457E292}" name="Column9" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{7C29E81F-F3A6-4F34-920C-97C4F89B548E}" name="Column10" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{825E881F-309A-4343-9CA2-94A2FDFFC915}" name="Column11" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{0B28E26A-A42A-416D-B69E-CFABB8C710A1}" name="Column12" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{A7CF5DDE-ADDE-44B3-885F-45FF3554EFCE}" name="Column13" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{4A00E646-D5E1-452F-8F41-5AC7494E8219}" name="Column14" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{BAEFC6DC-47D0-4BE7-AC99-EF573187F383}" name="Column15" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{2025F4A1-A70F-4DC2-97C6-1C168CA2CFDD}" name="Column16" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{F1C553E5-AB99-4FC4-8BE0-F4CCC2B74689}" name="Column17" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{EC867F3A-9751-4191-BCCA-47DC8F9595F8}" name="Column18" dataDxfId="42"/>
-    <tableColumn id="20" xr3:uid="{2D28FAA0-8F71-482C-8398-98F7561BEB96}" name="Column19" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{125EB3B8-2ED1-4D7D-8BCD-F51293B75AAB}" name="Column1" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{51A38D9B-4BD5-4D0C-9AD6-A8DB31A11C8C}" name="Column2" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{4822773B-90AA-45BE-8491-22442303AC78}" name="Column3" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{14817EC6-BD9C-4F45-9EA1-6F2835E821C6}" name="Column32" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{9191CA77-AC96-4850-B852-AEF19E5AE7F6}" name="Column4" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{19C136D9-C56C-4C43-A09B-0611EF259F4A}" name="Column5" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{F2D38A70-179C-466A-9C9C-62B0159C9EA4}" name="Column6" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{BD6AEF60-959E-40EB-A115-94FCCE30E902}" name="Column7" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{690B6EA3-DCE8-4673-9536-DF6C941E91B6}" name="Column8" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{D888861D-40D0-4BA1-A82D-3EA2B457E292}" name="Column9" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{7C29E81F-F3A6-4F34-920C-97C4F89B548E}" name="Column10" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{825E881F-309A-4343-9CA2-94A2FDFFC915}" name="Column11" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{0B28E26A-A42A-416D-B69E-CFABB8C710A1}" name="Column12" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{A7CF5DDE-ADDE-44B3-885F-45FF3554EFCE}" name="Column13" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{4A00E646-D5E1-452F-8F41-5AC7494E8219}" name="Column14" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{BAEFC6DC-47D0-4BE7-AC99-EF573187F383}" name="Column15" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{2025F4A1-A70F-4DC2-97C6-1C168CA2CFDD}" name="Column16" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{F1C553E5-AB99-4FC4-8BE0-F4CCC2B74689}" name="Column17" dataDxfId="44"/>
+    <tableColumn id="19" xr3:uid="{EC867F3A-9751-4191-BCCA-47DC8F9595F8}" name="Column18" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{2D28FAA0-8F71-482C-8398-98F7561BEB96}" name="Column19" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{397CC22C-EE74-47A5-A933-F82F9E1B75C6}" name="Table3" displayName="Table3" ref="B2:R25" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{397CC22C-EE74-47A5-A933-F82F9E1B75C6}" name="Table3" displayName="Table3" ref="B2:R25" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
   <autoFilter ref="B2:R25" xr:uid="{397CC22C-EE74-47A5-A933-F82F9E1B75C6}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{BACCB4E6-9236-4931-A219-119BF9D764C5}" name="SL" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{6CFE6797-2BF2-43C5-A8E0-F5204B794420}" name="Area" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{5F4347CD-9652-4BEE-9B11-B03258F4E698}" name="Distric" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{CD83A13A-F42F-4EE7-9A3C-72575383CAF7}" name="ID " dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{5ACC8E4B-2154-4336-A1AA-513BA6D9EF4F}" name="Customer Name" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{9056A30A-CEBC-4728-9A8E-396EDB648123}" name="Exp Date" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{5FB3EE44-5632-4DA1-873F-B0AD1349734B}" name="Days" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{BACCB4E6-9236-4931-A219-119BF9D764C5}" name="SL" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{6CFE6797-2BF2-43C5-A8E0-F5204B794420}" name="Area" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{5F4347CD-9652-4BEE-9B11-B03258F4E698}" name="Distric" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{CD83A13A-F42F-4EE7-9A3C-72575383CAF7}" name="ID " dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{5ACC8E4B-2154-4336-A1AA-513BA6D9EF4F}" name="Customer Name" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{9056A30A-CEBC-4728-9A8E-396EDB648123}" name="Exp Date" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{5FB3EE44-5632-4DA1-873F-B0AD1349734B}" name="Days" dataDxfId="32">
       <calculatedColumnFormula>G3-TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A898F3B4-3AFE-4A5A-A1A4-76C827C368CE}" name="M. Amount" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{3EAA89C6-EEF5-4F13-8BA5-A62BF796BE19}" name="January" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{9C912F7F-78F7-43C8-9525-FFD8A923D402}" name="person" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{63A3D435-EAD9-47BF-8FCA-71D1310D223F}" name="Amount" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{E39FD2BE-8B5B-46EC-8FF5-C70772CAA52A}" name="February" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{7082B379-B8D5-4EDE-AF2D-8621FDDDC3BA}" name="Person2" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{37A76047-66C5-4253-89D1-397B03218F47}" name="Amount2" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{CB40F9F7-7B23-4516-B056-6355490E076A}" name="March" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{65DEC709-E0DE-41B2-A0AC-71DE9F28EC90}" name="Person3" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{DAFC7AE1-82D9-4EC8-88BB-EF7AACF4E80D}" name="Amount3" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{A898F3B4-3AFE-4A5A-A1A4-76C827C368CE}" name="M. Amount" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{3EAA89C6-EEF5-4F13-8BA5-A62BF796BE19}" name="January" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{9C912F7F-78F7-43C8-9525-FFD8A923D402}" name="person" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{63A3D435-EAD9-47BF-8FCA-71D1310D223F}" name="Amount" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{E39FD2BE-8B5B-46EC-8FF5-C70772CAA52A}" name="February" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{7082B379-B8D5-4EDE-AF2D-8621FDDDC3BA}" name="Person2" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{37A76047-66C5-4253-89D1-397B03218F47}" name="Amount2" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{CB40F9F7-7B23-4516-B056-6355490E076A}" name="March" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{65DEC709-E0DE-41B2-A0AC-71DE9F28EC90}" name="Person3" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{DAFC7AE1-82D9-4EC8-88BB-EF7AACF4E80D}" name="Amount3" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E46AE9E5-9A64-4C6E-912B-99B90F27B548}" name="Table1" displayName="Table1" ref="C2:O19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E46AE9E5-9A64-4C6E-912B-99B90F27B548}" name="Table1" displayName="Table1" ref="C2:O19" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="C2:O19" xr:uid="{E46AE9E5-9A64-4C6E-912B-99B90F27B548}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{DFA6A91A-9559-49B2-B00A-051B05C8B149}" name="SL" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{6C4B04E3-A274-4B3F-B853-10C98960A220}" name="ID" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{B67B8550-EE82-445E-89FF-FF9A6643C892}" name="Machine Company Name" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9B8C3F66-E3CE-4280-A94B-C3644C3E33A2}" name="Monthly Amount" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{43B930CB-4850-4DD5-BB1B-0DA14C4DC33B}" name="January" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{6F4AC6AB-F4F7-4B4B-A415-0272D676E49F}" name="Collceted By" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{6767B80D-0F0D-4CE9-B0C5-67BFC26613D2}" name="Amount" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{2A65F675-AE51-4D77-95FB-8110E3415EB5}" name="Feb" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{672C7689-CDF5-4104-B79D-825C96DBDE38}" name="Collected By" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{32A8D9E3-E379-4C4E-A187-B967ACE35852}" name="Amount2" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{EFC80208-5554-4BF0-9C34-60819E614FAF}" name="Mar" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{83238C3E-99BA-4A90-AD01-981FB29EC63F}" name="Collected By3" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{C3035C12-1BDA-4A69-AF12-A605333AA6BA}" name="Amount4" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DFA6A91A-9559-49B2-B00A-051B05C8B149}" name="SL" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{6C4B04E3-A274-4B3F-B853-10C98960A220}" name="ID" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{B67B8550-EE82-445E-89FF-FF9A6643C892}" name="Machine Company Name" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{9B8C3F66-E3CE-4280-A94B-C3644C3E33A2}" name="Monthly Amount" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{43B930CB-4850-4DD5-BB1B-0DA14C4DC33B}" name="January" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{6F4AC6AB-F4F7-4B4B-A415-0272D676E49F}" name="Collceted By" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{6767B80D-0F0D-4CE9-B0C5-67BFC26613D2}" name="Amount" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{2A65F675-AE51-4D77-95FB-8110E3415EB5}" name="Feb" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{672C7689-CDF5-4104-B79D-825C96DBDE38}" name="Collected By" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{32A8D9E3-E379-4C4E-A187-B967ACE35852}" name="Amount2" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{EFC80208-5554-4BF0-9C34-60819E614FAF}" name="Mar" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{83238C3E-99BA-4A90-AD01-981FB29EC63F}" name="Collected By3" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{C3035C12-1BDA-4A69-AF12-A605333AA6BA}" name="Amount4" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3725,11 +3750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5E70A2-5C2B-433D-AF4A-5C24473DABA6}">
-  <dimension ref="A1:AK507"/>
+  <dimension ref="A1:AK523"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A487" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D498" sqref="D498"/>
+      <pane ySplit="2" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B521" sqref="B521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3765,8 +3790,8 @@
     <row r="1" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="21"/>
       <c r="C1" s="44">
-        <f>SUBTOTAL(3,C3:C507)</f>
-        <v>494</v>
+        <f>SUBTOTAL(3,C3:C523)</f>
+        <v>517</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="11"/>
@@ -3778,16 +3803,16 @@
         <v>73590</v>
       </c>
       <c r="J1" s="35">
-        <f>SUBTOTAL(9,J3:J628)</f>
-        <v>2283495</v>
+        <f>SUBTOTAL(9,J3:J638)</f>
+        <v>2436495</v>
       </c>
       <c r="K1" s="1">
-        <f>SUBTOTAL(9,K3:K628)</f>
-        <v>2163030</v>
+        <f>SUBTOTAL(9,K3:K638)</f>
+        <v>2175758</v>
       </c>
       <c r="L1" s="1">
-        <f>SUBTOTAL(9,L3:L630)</f>
-        <v>37925</v>
+        <f>SUBTOTAL(9,L3:L640)</f>
+        <v>151197</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -6311,6 +6336,12 @@
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
+      <c r="R61" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="U61" s="6"/>
     </row>
     <row r="62" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6343,6 +6374,12 @@
       </c>
       <c r="M62" s="3"/>
       <c r="N62" s="8"/>
+      <c r="R62" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="U62" s="6"/>
     </row>
     <row r="63" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -20498,7 +20535,9 @@
       <c r="G488" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="H488" s="3"/>
+      <c r="H488" s="3">
+        <v>1</v>
+      </c>
       <c r="I488" s="3"/>
       <c r="J488" s="37">
         <v>5000</v>
@@ -20531,102 +20570,108 @@
         <v>38</v>
       </c>
       <c r="G489" s="3"/>
-      <c r="H489" s="3"/>
+      <c r="H489" s="3">
+        <v>2</v>
+      </c>
       <c r="I489" s="3"/>
       <c r="J489" s="37">
         <v>3000</v>
       </c>
-      <c r="K489" s="3"/>
+      <c r="K489" s="3">
+        <v>45</v>
+      </c>
       <c r="L489" s="3">
         <f>J489-K489-Table112[[#This Row],[3rd Party]]</f>
-        <v>3000</v>
+        <v>2955</v>
       </c>
       <c r="M489" s="3"/>
       <c r="N489" s="8"/>
     </row>
     <row r="490" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B490" s="22">
-        <v>44933</v>
+        <v>44930</v>
       </c>
       <c r="C490" s="9">
         <v>488</v>
       </c>
       <c r="D490" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E490" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Noor Hospital</v>
+        <v>440</v>
+      </c>
+      <c r="E490" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Doctors Clinic (Jalokhathi)</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="H490" s="3">
-        <v>1</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="H490" s="3"/>
       <c r="I490" s="3"/>
-      <c r="J490" s="37">
-        <v>15000</v>
-      </c>
-      <c r="K490" s="3"/>
-      <c r="L490" s="3">
+      <c r="J490" s="37"/>
+      <c r="K490" s="3">
+        <v>2640</v>
+      </c>
+      <c r="L490" s="65">
         <f>J490-K490-Table112[[#This Row],[3rd Party]]</f>
-        <v>15000</v>
+        <v>-2640</v>
       </c>
       <c r="M490" s="3"/>
-      <c r="N490" s="8"/>
+      <c r="N490" s="66" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="491" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B491" s="22">
-        <v>44934</v>
+        <v>44933</v>
       </c>
       <c r="C491" s="9">
         <v>489</v>
       </c>
       <c r="D491" s="10" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="E491" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Cresent Hospital</v>
+        <v>Noor Hospital</v>
       </c>
       <c r="F491" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G491" s="3"/>
+      <c r="G491" s="3" t="s">
+        <v>439</v>
+      </c>
       <c r="H491" s="3">
-        <v>2</v>
-      </c>
-      <c r="I491" s="3">
-        <v>500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I491" s="3"/>
       <c r="J491" s="37">
-        <v>2500</v>
-      </c>
-      <c r="K491" s="3"/>
+        <v>15000</v>
+      </c>
+      <c r="K491" s="3">
+        <v>224</v>
+      </c>
       <c r="L491" s="3">
         <f>J491-K491-Table112[[#This Row],[3rd Party]]</f>
-        <v>2000</v>
+        <v>14776</v>
       </c>
       <c r="M491" s="3"/>
       <c r="N491" s="8"/>
     </row>
     <row r="492" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B492" s="22">
-        <v>44935</v>
+        <v>44934</v>
       </c>
       <c r="C492" s="9">
         <v>490</v>
       </c>
       <c r="D492" s="10" t="s">
-        <v>440</v>
+        <v>56</v>
       </c>
       <c r="E492" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Doctors Clinic (Jalokhathi)</v>
+        <v>Cresent Hospital</v>
       </c>
       <c r="F492" s="3" t="s">
         <v>57</v>
@@ -20635,14 +20680,18 @@
       <c r="H492" s="3">
         <v>2</v>
       </c>
-      <c r="I492" s="3"/>
+      <c r="I492" s="3">
+        <v>500</v>
+      </c>
       <c r="J492" s="37">
-        <v>2000</v>
-      </c>
-      <c r="K492" s="3"/>
+        <v>2500</v>
+      </c>
+      <c r="K492" s="3">
+        <v>37</v>
+      </c>
       <c r="L492" s="3">
         <f>J492-K492-Table112[[#This Row],[3rd Party]]</f>
-        <v>2000</v>
+        <v>1963</v>
       </c>
       <c r="M492" s="3"/>
       <c r="N492" s="8"/>
@@ -20655,11 +20704,11 @@
         <v>491</v>
       </c>
       <c r="D493" s="10" t="s">
-        <v>94</v>
+        <v>440</v>
       </c>
       <c r="E493" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Tahia</v>
+        <v>Doctors Clinic (Jalokhathi)</v>
       </c>
       <c r="F493" s="3" t="s">
         <v>57</v>
@@ -20670,12 +20719,14 @@
       </c>
       <c r="I493" s="3"/>
       <c r="J493" s="37">
-        <v>1500</v>
-      </c>
-      <c r="K493" s="3"/>
+        <v>2000</v>
+      </c>
+      <c r="K493" s="3">
+        <v>30</v>
+      </c>
       <c r="L493" s="3">
         <f>J493-K493-Table112[[#This Row],[3rd Party]]</f>
-        <v>1500</v>
+        <v>1970</v>
       </c>
       <c r="M493" s="3"/>
       <c r="N493" s="8"/>
@@ -20688,11 +20739,11 @@
         <v>492</v>
       </c>
       <c r="D494" s="10" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E494" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Mondol D/C Pabna</v>
+        <v>Tahia</v>
       </c>
       <c r="F494" s="3" t="s">
         <v>57</v>
@@ -20703,12 +20754,14 @@
       </c>
       <c r="I494" s="3"/>
       <c r="J494" s="37">
-        <v>2000</v>
-      </c>
-      <c r="K494" s="3"/>
+        <v>1500</v>
+      </c>
+      <c r="K494" s="3">
+        <v>22</v>
+      </c>
       <c r="L494" s="3">
         <f>J494-K494-Table112[[#This Row],[3rd Party]]</f>
-        <v>2000</v>
+        <v>1478</v>
       </c>
       <c r="M494" s="3"/>
       <c r="N494" s="8"/>
@@ -20721,11 +20774,11 @@
         <v>493</v>
       </c>
       <c r="D495" s="10" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E495" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Akhtarunnahar M/H</v>
+        <v>Mondol D/C Pabna</v>
       </c>
       <c r="F495" s="3" t="s">
         <v>57</v>
@@ -20736,264 +20789,902 @@
       </c>
       <c r="I495" s="3"/>
       <c r="J495" s="37">
-        <v>2500</v>
-      </c>
-      <c r="K495" s="3"/>
+        <v>2000</v>
+      </c>
+      <c r="K495" s="3">
+        <v>30</v>
+      </c>
       <c r="L495" s="3">
         <f>J495-K495-Table112[[#This Row],[3rd Party]]</f>
-        <v>2500</v>
+        <v>1970</v>
       </c>
       <c r="M495" s="3"/>
       <c r="N495" s="8"/>
     </row>
     <row r="496" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B496" s="22">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="C496" s="9">
         <v>494</v>
       </c>
       <c r="D496" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E496" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Extra Machine</v>
+        <v>Akhtarunnahar M/H</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G496" s="3" t="s">
-        <v>442</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G496" s="3"/>
       <c r="H496" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496" s="3"/>
       <c r="J496" s="37">
-        <v>5000</v>
-      </c>
-      <c r="K496" s="3"/>
+        <v>2500</v>
+      </c>
+      <c r="K496" s="3">
+        <v>37</v>
+      </c>
       <c r="L496" s="3">
         <f>J496-K496-Table112[[#This Row],[3rd Party]]</f>
-        <v>5000</v>
+        <v>2463</v>
       </c>
       <c r="M496" s="3"/>
       <c r="N496" s="8"/>
     </row>
-    <row r="497" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D497" s="10"/>
+    <row r="497" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="22">
+        <v>44936</v>
+      </c>
+      <c r="C497" s="9">
+        <v>495</v>
+      </c>
+      <c r="D497" s="10" t="s">
+        <v>443</v>
+      </c>
       <c r="E497" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F497" s="3"/>
+        <v>KingFisher</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="G497" s="3"/>
-      <c r="H497" s="3"/>
+      <c r="H497" s="3">
+        <v>1</v>
+      </c>
       <c r="I497" s="3"/>
-      <c r="J497" s="37"/>
-      <c r="K497" s="3"/>
+      <c r="J497" s="37">
+        <v>5000</v>
+      </c>
+      <c r="K497" s="3">
+        <v>75</v>
+      </c>
       <c r="L497" s="3">
         <f>J497-K497-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>4925</v>
       </c>
       <c r="M497" s="3"/>
       <c r="N497" s="8"/>
     </row>
-    <row r="498" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D498" s="10"/>
+    <row r="498" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="22">
+        <v>44938</v>
+      </c>
+      <c r="C498" s="9">
+        <v>496</v>
+      </c>
+      <c r="D498" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="E498" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F498" s="3"/>
-      <c r="G498" s="3"/>
-      <c r="H498" s="3"/>
+        <v>Extra Machine</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H498" s="3">
+        <v>2</v>
+      </c>
       <c r="I498" s="3"/>
-      <c r="J498" s="37"/>
-      <c r="K498" s="3"/>
+      <c r="J498" s="37">
+        <v>4500</v>
+      </c>
+      <c r="K498" s="3">
+        <v>67</v>
+      </c>
       <c r="L498" s="3">
         <f>J498-K498-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>4433</v>
       </c>
       <c r="M498" s="3"/>
       <c r="N498" s="8"/>
     </row>
-    <row r="499" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D499" s="10"/>
+    <row r="499" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="22">
+        <v>44939</v>
+      </c>
+      <c r="C499" s="9">
+        <v>497</v>
+      </c>
+      <c r="D499" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="E499" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F499" s="3"/>
+        <v>Dr. Zahir Point</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
-      <c r="I499" s="3"/>
-      <c r="J499" s="37"/>
-      <c r="K499" s="3"/>
+      <c r="I499" s="3">
+        <v>500</v>
+      </c>
+      <c r="J499" s="37">
+        <v>2000</v>
+      </c>
+      <c r="K499" s="3">
+        <v>30</v>
+      </c>
       <c r="L499" s="3">
         <f>J499-K499-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="M499" s="3"/>
       <c r="N499" s="8"/>
     </row>
-    <row r="500" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D500" s="10"/>
+    <row r="500" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="22">
+        <v>44941</v>
+      </c>
+      <c r="C500" s="9">
+        <v>498</v>
+      </c>
+      <c r="D500" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E500" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F500" s="3"/>
+        <v>Medical Solution</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
       <c r="I500" s="3"/>
-      <c r="J500" s="37"/>
+      <c r="J500" s="37">
+        <v>10000</v>
+      </c>
       <c r="K500" s="3"/>
       <c r="L500" s="3">
         <f>J500-K500-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M500" s="3"/>
       <c r="N500" s="8"/>
     </row>
-    <row r="501" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D501" s="10"/>
+    <row r="501" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="22">
+        <v>44942</v>
+      </c>
+      <c r="C501" s="9">
+        <v>499</v>
+      </c>
+      <c r="D501" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="E501" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F501" s="3"/>
+        <v>Bio-Vitro</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
       <c r="I501" s="3"/>
-      <c r="J501" s="37"/>
-      <c r="K501" s="3"/>
+      <c r="J501" s="37">
+        <v>7000</v>
+      </c>
+      <c r="K501" s="3">
+        <v>104</v>
+      </c>
       <c r="L501" s="3">
         <f>J501-K501-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>6896</v>
       </c>
       <c r="M501" s="3"/>
       <c r="N501" s="8"/>
     </row>
-    <row r="502" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D502" s="10"/>
+    <row r="502" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="22">
+        <v>44942</v>
+      </c>
+      <c r="C502" s="9">
+        <v>500</v>
+      </c>
+      <c r="D502" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="E502" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F502" s="3"/>
+        <v>Erba</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
       <c r="I502" s="3"/>
-      <c r="J502" s="37"/>
+      <c r="J502" s="37">
+        <v>15000</v>
+      </c>
       <c r="K502" s="3"/>
       <c r="L502" s="3">
         <f>J502-K502-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="M502" s="3"/>
       <c r="N502" s="8"/>
     </row>
-    <row r="503" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D503" s="10"/>
+    <row r="503" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="22">
+        <v>44943</v>
+      </c>
+      <c r="C503" s="9">
+        <v>501</v>
+      </c>
+      <c r="D503" s="10" t="s">
+        <v>403</v>
+      </c>
       <c r="E503" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F503" s="3"/>
+        <v>Madumoti</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
       <c r="I503" s="3"/>
-      <c r="J503" s="37"/>
-      <c r="K503" s="3"/>
+      <c r="J503" s="37">
+        <v>3000</v>
+      </c>
+      <c r="K503" s="3">
+        <v>45</v>
+      </c>
       <c r="L503" s="3">
         <f>J503-K503-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>2955</v>
       </c>
       <c r="M503" s="3"/>
       <c r="N503" s="8"/>
     </row>
-    <row r="504" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D504" s="10"/>
-      <c r="E504" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F504" s="3"/>
-      <c r="G504" s="3"/>
+    <row r="504" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="22">
+        <v>44944</v>
+      </c>
+      <c r="C504" s="9">
+        <v>502</v>
+      </c>
+      <c r="D504" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="E504" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Truma (Naogaon)</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="H504" s="3"/>
       <c r="I504" s="3"/>
       <c r="J504" s="37"/>
-      <c r="K504" s="3"/>
-      <c r="L504" s="3">
+      <c r="K504" s="3">
+        <v>2936</v>
+      </c>
+      <c r="L504" s="65">
         <f>J504-K504-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>-2936</v>
       </c>
       <c r="M504" s="3"/>
-      <c r="N504" s="8"/>
-    </row>
-    <row r="505" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D505" s="10"/>
-      <c r="E505" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F505" s="3"/>
+      <c r="N504" s="66" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="505" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="22">
+        <v>44944</v>
+      </c>
+      <c r="C505" s="9">
+        <v>503</v>
+      </c>
+      <c r="D505" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E505" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Medicus</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
       <c r="I505" s="3"/>
-      <c r="J505" s="37"/>
-      <c r="K505" s="3"/>
-      <c r="L505" s="3">
+      <c r="J505" s="37">
+        <v>1500</v>
+      </c>
+      <c r="K505" s="3">
+        <v>22</v>
+      </c>
+      <c r="L505" s="65">
         <f>J505-K505-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="M505" s="3"/>
-      <c r="N505" s="8"/>
-    </row>
-    <row r="506" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D506" s="10"/>
+      <c r="N505" s="66"/>
+    </row>
+    <row r="506" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="22">
+        <v>44945</v>
+      </c>
+      <c r="C506" s="9">
+        <v>504</v>
+      </c>
+      <c r="D506" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="E506" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F506" s="3"/>
+        <v>Asha Diagnostic Jatharabari</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
       <c r="I506" s="3"/>
-      <c r="J506" s="37"/>
-      <c r="K506" s="3"/>
+      <c r="J506" s="37">
+        <v>2000</v>
+      </c>
+      <c r="K506" s="3">
+        <v>30</v>
+      </c>
       <c r="L506" s="3">
         <f>J506-K506-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="M506" s="3"/>
       <c r="N506" s="8"/>
     </row>
-    <row r="507" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D507" s="10"/>
+    <row r="507" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="22">
+        <v>44945</v>
+      </c>
+      <c r="C507" s="9">
+        <v>505</v>
+      </c>
+      <c r="D507" s="10" t="s">
+        <v>337</v>
+      </c>
       <c r="E507" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F507" s="3"/>
+        <v>Colledge Gate</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
       <c r="I507" s="3"/>
-      <c r="J507" s="37"/>
-      <c r="K507" s="3"/>
+      <c r="J507" s="37">
+        <v>2000</v>
+      </c>
+      <c r="K507" s="3">
+        <v>30</v>
+      </c>
       <c r="L507" s="3">
         <f>J507-K507-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="M507" s="3"/>
       <c r="N507" s="8"/>
     </row>
+    <row r="508" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="22">
+        <v>44946</v>
+      </c>
+      <c r="C508" s="9">
+        <v>506</v>
+      </c>
+      <c r="D508" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E508" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Koloroa</v>
+      </c>
+      <c r="F508" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G508" s="3"/>
+      <c r="H508" s="3"/>
+      <c r="I508" s="3">
+        <v>500</v>
+      </c>
+      <c r="J508" s="37">
+        <v>2000</v>
+      </c>
+      <c r="K508" s="3">
+        <v>30</v>
+      </c>
+      <c r="L508" s="3">
+        <f>J508-K508-Table112[[#This Row],[3rd Party]]</f>
+        <v>1470</v>
+      </c>
+      <c r="M508" s="3"/>
+      <c r="N508" s="8"/>
+    </row>
+    <row r="509" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="22">
+        <v>44948</v>
+      </c>
+      <c r="C509" s="9">
+        <v>507</v>
+      </c>
+      <c r="D509" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E509" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>SMC</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G509" s="3"/>
+      <c r="H509" s="3"/>
+      <c r="I509" s="3"/>
+      <c r="J509" s="37"/>
+      <c r="K509" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L509" s="65">
+        <f>J509-K509-Table112[[#This Row],[3rd Party]]</f>
+        <v>-1600</v>
+      </c>
+      <c r="M509" s="3"/>
+      <c r="N509" s="66" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="510" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="22">
+        <v>44949</v>
+      </c>
+      <c r="C510" s="9">
+        <v>508</v>
+      </c>
+      <c r="D510" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E510" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>UltraVision (Jhenaidah)</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G510" s="3"/>
+      <c r="H510" s="3"/>
+      <c r="I510" s="3">
+        <v>500</v>
+      </c>
+      <c r="J510" s="37">
+        <v>2000</v>
+      </c>
+      <c r="K510" s="3">
+        <v>30</v>
+      </c>
+      <c r="L510" s="65">
+        <f>J510-K510-Table112[[#This Row],[3rd Party]]</f>
+        <v>1470</v>
+      </c>
+      <c r="M510" s="3"/>
+      <c r="N510" s="66"/>
+    </row>
+    <row r="511" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="22">
+        <v>44950</v>
+      </c>
+      <c r="C511" s="9">
+        <v>509</v>
+      </c>
+      <c r="D511" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E511" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v xml:space="preserve">Medi Point </v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G511" s="3"/>
+      <c r="H511" s="3"/>
+      <c r="I511" s="3"/>
+      <c r="J511" s="37">
+        <v>10000</v>
+      </c>
+      <c r="K511" s="3">
+        <v>149</v>
+      </c>
+      <c r="L511" s="65">
+        <f>J511-K511-Table112[[#This Row],[3rd Party]]</f>
+        <v>9851</v>
+      </c>
+      <c r="M511" s="3"/>
+      <c r="N511" s="66"/>
+    </row>
+    <row r="512" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="22">
+        <v>44951</v>
+      </c>
+      <c r="C512" s="9">
+        <v>510</v>
+      </c>
+      <c r="D512" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E512" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Bio-Aid</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G512" s="3"/>
+      <c r="H512" s="3"/>
+      <c r="I512" s="3"/>
+      <c r="J512" s="37">
+        <v>15000</v>
+      </c>
+      <c r="K512" s="3"/>
+      <c r="L512" s="65">
+        <f>J512-K512-Table112[[#This Row],[3rd Party]]</f>
+        <v>15000</v>
+      </c>
+      <c r="M512" s="3"/>
+      <c r="N512" s="66"/>
+    </row>
+    <row r="513" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="22">
+        <v>44951</v>
+      </c>
+      <c r="C513" s="9">
+        <v>511</v>
+      </c>
+      <c r="D513" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E513" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Popular (Nowgong)</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H513" s="3"/>
+      <c r="I513" s="3"/>
+      <c r="J513" s="37">
+        <v>4000</v>
+      </c>
+      <c r="K513" s="3">
+        <v>60</v>
+      </c>
+      <c r="L513" s="3">
+        <f>J513-K513-Table112[[#This Row],[3rd Party]]</f>
+        <v>3940</v>
+      </c>
+      <c r="M513" s="3"/>
+      <c r="N513" s="8"/>
+    </row>
+    <row r="514" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="22">
+        <v>44952</v>
+      </c>
+      <c r="C514" s="9">
+        <v>512</v>
+      </c>
+      <c r="D514" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E514" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Health Care (Ishwardi)</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G514" s="3"/>
+      <c r="H514" s="3"/>
+      <c r="I514" s="3"/>
+      <c r="J514" s="37"/>
+      <c r="K514" s="3">
+        <v>2185</v>
+      </c>
+      <c r="L514" s="65">
+        <f>J514-K514-Table112[[#This Row],[3rd Party]]</f>
+        <v>-2185</v>
+      </c>
+      <c r="M514" s="3"/>
+      <c r="N514" s="66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="515" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="22">
+        <v>44954</v>
+      </c>
+      <c r="C515" s="9">
+        <v>513</v>
+      </c>
+      <c r="D515" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E515" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Medi Point D/C</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G515" s="3"/>
+      <c r="H515" s="3"/>
+      <c r="I515" s="3"/>
+      <c r="J515" s="37">
+        <v>1000</v>
+      </c>
+      <c r="K515" s="3">
+        <v>15</v>
+      </c>
+      <c r="L515" s="3">
+        <f>J515-K515-Table112[[#This Row],[3rd Party]]</f>
+        <v>985</v>
+      </c>
+      <c r="M515" s="3"/>
+      <c r="N515" s="8"/>
+    </row>
+    <row r="516" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="22">
+        <v>44956</v>
+      </c>
+      <c r="C516" s="9">
+        <v>514</v>
+      </c>
+      <c r="D516" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E516" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>SMC</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G516" s="3"/>
+      <c r="H516" s="3"/>
+      <c r="I516" s="3"/>
+      <c r="J516" s="37"/>
+      <c r="K516" s="3">
+        <v>2225</v>
+      </c>
+      <c r="L516" s="65">
+        <f>J516-K516-Table112[[#This Row],[3rd Party]]</f>
+        <v>-2225</v>
+      </c>
+      <c r="M516" s="3"/>
+      <c r="N516" s="66" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="517" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="22">
+        <v>44956</v>
+      </c>
+      <c r="C517" s="9">
+        <v>515</v>
+      </c>
+      <c r="D517" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E517" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>SMC</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G517" s="3"/>
+      <c r="H517" s="3"/>
+      <c r="I517" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J517" s="37">
+        <v>50000</v>
+      </c>
+      <c r="K517" s="3"/>
+      <c r="L517" s="65">
+        <f>J517-K517-Table112[[#This Row],[3rd Party]]</f>
+        <v>25000</v>
+      </c>
+      <c r="M517" s="3"/>
+      <c r="N517" s="66"/>
+    </row>
+    <row r="518" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="22">
+        <v>44957</v>
+      </c>
+      <c r="C518" s="9">
+        <v>516</v>
+      </c>
+      <c r="D518" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E518" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Ayesha D/C (Jhenaidah)</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G518" s="3"/>
+      <c r="H518" s="3"/>
+      <c r="I518" s="3">
+        <v>500</v>
+      </c>
+      <c r="J518" s="37">
+        <v>2000</v>
+      </c>
+      <c r="K518" s="3">
+        <v>30</v>
+      </c>
+      <c r="L518" s="65">
+        <f>J518-K518-Table112[[#This Row],[3rd Party]]</f>
+        <v>1470</v>
+      </c>
+      <c r="M518" s="3"/>
+      <c r="N518" s="66"/>
+    </row>
+    <row r="519" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="22">
+        <v>44957</v>
+      </c>
+      <c r="C519" s="9">
+        <v>517</v>
+      </c>
+      <c r="D519" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E519" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Bio-Tech</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G519" s="3"/>
+      <c r="H519" s="3"/>
+      <c r="I519" s="3"/>
+      <c r="J519" s="37">
+        <v>20000</v>
+      </c>
+      <c r="K519" s="3"/>
+      <c r="L519" s="65">
+        <f>J519-K519-Table112[[#This Row],[3rd Party]]</f>
+        <v>20000</v>
+      </c>
+      <c r="M519" s="3"/>
+      <c r="N519" s="66"/>
+    </row>
+    <row r="520" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D520" s="10"/>
+      <c r="E520" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F520" s="3"/>
+      <c r="G520" s="3"/>
+      <c r="H520" s="3"/>
+      <c r="I520" s="3"/>
+      <c r="J520" s="37"/>
+      <c r="K520" s="3"/>
+      <c r="L520" s="65">
+        <f>J520-K520-Table112[[#This Row],[3rd Party]]</f>
+        <v>0</v>
+      </c>
+      <c r="M520" s="3"/>
+      <c r="N520" s="66"/>
+    </row>
+    <row r="521" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D521" s="10"/>
+      <c r="E521" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F521" s="3"/>
+      <c r="G521" s="3"/>
+      <c r="H521" s="3"/>
+      <c r="I521" s="3"/>
+      <c r="J521" s="37"/>
+      <c r="K521" s="3"/>
+      <c r="L521" s="65">
+        <f>J521-K521-Table112[[#This Row],[3rd Party]]</f>
+        <v>0</v>
+      </c>
+      <c r="M521" s="3"/>
+      <c r="N521" s="66"/>
+    </row>
+    <row r="522" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D522" s="10"/>
+      <c r="E522" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F522" s="3"/>
+      <c r="G522" s="3"/>
+      <c r="H522" s="3"/>
+      <c r="I522" s="3"/>
+      <c r="J522" s="37"/>
+      <c r="K522" s="3"/>
+      <c r="L522" s="65">
+        <f>J522-K522-Table112[[#This Row],[3rd Party]]</f>
+        <v>0</v>
+      </c>
+      <c r="M522" s="3"/>
+      <c r="N522" s="66"/>
+    </row>
+    <row r="523" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D523" s="10"/>
+      <c r="E523" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F523" s="3"/>
+      <c r="G523" s="3"/>
+      <c r="H523" s="3"/>
+      <c r="I523" s="3"/>
+      <c r="J523" s="37"/>
+      <c r="K523" s="3"/>
+      <c r="L523" s="65">
+        <f>J523-K523-Table112[[#This Row],[3rd Party]]</f>
+        <v>0</v>
+      </c>
+      <c r="M523" s="3"/>
+      <c r="N523" s="66"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M1 L2:M507">
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+  <conditionalFormatting sqref="M1 L2:M523">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21097,7 +21788,7 @@
       </c>
       <c r="H3" s="53">
         <f ca="1">G3-TODAY()</f>
-        <v>-12</v>
+        <v>-23</v>
       </c>
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
@@ -21129,7 +21820,7 @@
       </c>
       <c r="H4" s="53">
         <f t="shared" ref="H4:H24" ca="1" si="0">G4-TODAY()</f>
-        <v>-12</v>
+        <v>-23</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
@@ -21161,7 +21852,7 @@
       </c>
       <c r="H5" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
@@ -21193,7 +21884,7 @@
       </c>
       <c r="H6" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>-23</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -21225,7 +21916,7 @@
       </c>
       <c r="H7" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
@@ -21257,7 +21948,7 @@
       </c>
       <c r="H8" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
@@ -21289,7 +21980,7 @@
       </c>
       <c r="H9" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-28</v>
+        <v>-39</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="53"/>
@@ -21321,7 +22012,7 @@
       </c>
       <c r="H10" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
@@ -21353,7 +22044,7 @@
       </c>
       <c r="H11" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
@@ -21383,7 +22074,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-44948</v>
+        <v>-44959</v>
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
@@ -21415,7 +22106,7 @@
       </c>
       <c r="H13" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
@@ -21447,7 +22138,7 @@
       </c>
       <c r="H14" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-48</v>
+        <v>-59</v>
       </c>
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
@@ -21479,7 +22170,7 @@
       </c>
       <c r="H15" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-22</v>
+        <v>-33</v>
       </c>
       <c r="I15" s="53"/>
       <c r="J15" s="53"/>
@@ -21509,7 +22200,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-44948</v>
+        <v>-44959</v>
       </c>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
@@ -21539,7 +22230,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-44948</v>
+        <v>-44959</v>
       </c>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
@@ -21571,7 +22262,7 @@
       </c>
       <c r="H18" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="I18" s="53"/>
       <c r="J18" s="53"/>
@@ -21603,7 +22294,7 @@
       </c>
       <c r="H19" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
@@ -21635,7 +22326,7 @@
       </c>
       <c r="H20" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-73</v>
+        <v>-84</v>
       </c>
       <c r="I20" s="53"/>
       <c r="J20" s="53"/>
@@ -21667,7 +22358,7 @@
       </c>
       <c r="H21" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-19</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
@@ -21699,7 +22390,7 @@
       </c>
       <c r="H22" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>-23</v>
       </c>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
@@ -21731,7 +22422,7 @@
       </c>
       <c r="H23" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-27</v>
+        <v>-38</v>
       </c>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
@@ -21763,7 +22454,7 @@
       </c>
       <c r="H24" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="I24" s="59"/>
       <c r="J24" s="59"/>
@@ -21792,7 +22483,7 @@
       </c>
       <c r="H25" s="59">
         <f ca="1">G25-TODAY()</f>
-        <v>-44948</v>
+        <v>-44959</v>
       </c>
       <c r="I25" s="59"/>
       <c r="J25" s="59"/>
@@ -21808,19 +22499,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H3:H25">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Bu Account 2023/BU Accounts 31.01.23.xlsx
+++ b/Bu Account 2023/BU Accounts 31.01.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Only-My\Bu Account 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E796BF-7073-4B70-AC61-D7CB7D54D927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A51436-A84B-4278-89F0-EB9D109C8A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="752" xr2:uid="{2573D83B-F11A-4879-AC74-1152F3DD4E44}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="28800" windowHeight="14010" tabRatio="752" xr2:uid="{2573D83B-F11A-4879-AC74-1152F3DD4E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="453">
   <si>
     <t>Date</t>
   </si>
@@ -1765,57 +1765,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="80">
     <dxf>
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF583E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2679,6 +2633,52 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF583E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3335,6 +3335,11 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3349,8 +3354,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4ABDBDD3-9322-4B87-BDF7-52B7119C6521}" name="Table112" displayName="Table112" ref="B2:N523" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
-  <autoFilter ref="B2:N523" xr:uid="{C3EA9AF6-F3C7-400E-BA9D-418C7DE32656}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4ABDBDD3-9322-4B87-BDF7-52B7119C6521}" name="Table112" displayName="Table112" ref="B2:N531" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="B2:N531" xr:uid="{C3EA9AF6-F3C7-400E-BA9D-418C7DE32656}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{605A2E63-A19A-419A-9576-780B6DEFB7F2}" name="Date" dataDxfId="76"/>
     <tableColumn id="13" xr3:uid="{F255DD77-1C6A-40BC-BDBF-DB9D7F704E03}" name="SL#" dataDxfId="75"/>
@@ -3404,50 +3409,50 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{397CC22C-EE74-47A5-A933-F82F9E1B75C6}" name="Table3" displayName="Table3" ref="B2:R25" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{397CC22C-EE74-47A5-A933-F82F9E1B75C6}" name="Table3" displayName="Table3" ref="B2:R25" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
   <autoFilter ref="B2:R25" xr:uid="{397CC22C-EE74-47A5-A933-F82F9E1B75C6}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{BACCB4E6-9236-4931-A219-119BF9D764C5}" name="SL" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{6CFE6797-2BF2-43C5-A8E0-F5204B794420}" name="Area" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{5F4347CD-9652-4BEE-9B11-B03258F4E698}" name="Distric" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{CD83A13A-F42F-4EE7-9A3C-72575383CAF7}" name="ID " dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{5ACC8E4B-2154-4336-A1AA-513BA6D9EF4F}" name="Customer Name" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{9056A30A-CEBC-4728-9A8E-396EDB648123}" name="Exp Date" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{5FB3EE44-5632-4DA1-873F-B0AD1349734B}" name="Days" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{BACCB4E6-9236-4931-A219-119BF9D764C5}" name="SL" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{6CFE6797-2BF2-43C5-A8E0-F5204B794420}" name="Area" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{5F4347CD-9652-4BEE-9B11-B03258F4E698}" name="Distric" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{CD83A13A-F42F-4EE7-9A3C-72575383CAF7}" name="ID " dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{5ACC8E4B-2154-4336-A1AA-513BA6D9EF4F}" name="Customer Name" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{9056A30A-CEBC-4728-9A8E-396EDB648123}" name="Exp Date" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{5FB3EE44-5632-4DA1-873F-B0AD1349734B}" name="Days" dataDxfId="27">
       <calculatedColumnFormula>G3-TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A898F3B4-3AFE-4A5A-A1A4-76C827C368CE}" name="M. Amount" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{3EAA89C6-EEF5-4F13-8BA5-A62BF796BE19}" name="January" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{9C912F7F-78F7-43C8-9525-FFD8A923D402}" name="person" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{63A3D435-EAD9-47BF-8FCA-71D1310D223F}" name="Amount" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{E39FD2BE-8B5B-46EC-8FF5-C70772CAA52A}" name="February" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{7082B379-B8D5-4EDE-AF2D-8621FDDDC3BA}" name="Person2" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{37A76047-66C5-4253-89D1-397B03218F47}" name="Amount2" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{CB40F9F7-7B23-4516-B056-6355490E076A}" name="March" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{65DEC709-E0DE-41B2-A0AC-71DE9F28EC90}" name="Person3" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{DAFC7AE1-82D9-4EC8-88BB-EF7AACF4E80D}" name="Amount3" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{A898F3B4-3AFE-4A5A-A1A4-76C827C368CE}" name="M. Amount" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{3EAA89C6-EEF5-4F13-8BA5-A62BF796BE19}" name="January" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{9C912F7F-78F7-43C8-9525-FFD8A923D402}" name="person" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{63A3D435-EAD9-47BF-8FCA-71D1310D223F}" name="Amount" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{E39FD2BE-8B5B-46EC-8FF5-C70772CAA52A}" name="February" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{7082B379-B8D5-4EDE-AF2D-8621FDDDC3BA}" name="Person2" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{37A76047-66C5-4253-89D1-397B03218F47}" name="Amount2" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{CB40F9F7-7B23-4516-B056-6355490E076A}" name="March" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{65DEC709-E0DE-41B2-A0AC-71DE9F28EC90}" name="Person3" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{DAFC7AE1-82D9-4EC8-88BB-EF7AACF4E80D}" name="Amount3" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E46AE9E5-9A64-4C6E-912B-99B90F27B548}" name="Table1" displayName="Table1" ref="C2:O19" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E46AE9E5-9A64-4C6E-912B-99B90F27B548}" name="Table1" displayName="Table1" ref="C2:O19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="C2:O19" xr:uid="{E46AE9E5-9A64-4C6E-912B-99B90F27B548}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{DFA6A91A-9559-49B2-B00A-051B05C8B149}" name="SL" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{6C4B04E3-A274-4B3F-B853-10C98960A220}" name="ID" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{B67B8550-EE82-445E-89FF-FF9A6643C892}" name="Machine Company Name" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{9B8C3F66-E3CE-4280-A94B-C3644C3E33A2}" name="Monthly Amount" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{43B930CB-4850-4DD5-BB1B-0DA14C4DC33B}" name="January" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{6F4AC6AB-F4F7-4B4B-A415-0272D676E49F}" name="Collceted By" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{6767B80D-0F0D-4CE9-B0C5-67BFC26613D2}" name="Amount" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{2A65F675-AE51-4D77-95FB-8110E3415EB5}" name="Feb" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{672C7689-CDF5-4104-B79D-825C96DBDE38}" name="Collected By" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{32A8D9E3-E379-4C4E-A187-B967ACE35852}" name="Amount2" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{EFC80208-5554-4BF0-9C34-60819E614FAF}" name="Mar" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{83238C3E-99BA-4A90-AD01-981FB29EC63F}" name="Collected By3" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{C3035C12-1BDA-4A69-AF12-A605333AA6BA}" name="Amount4" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{DFA6A91A-9559-49B2-B00A-051B05C8B149}" name="SL" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{6C4B04E3-A274-4B3F-B853-10C98960A220}" name="ID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B67B8550-EE82-445E-89FF-FF9A6643C892}" name="Machine Company Name" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9B8C3F66-E3CE-4280-A94B-C3644C3E33A2}" name="Monthly Amount" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{43B930CB-4850-4DD5-BB1B-0DA14C4DC33B}" name="January" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{6F4AC6AB-F4F7-4B4B-A415-0272D676E49F}" name="Collceted By" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6767B80D-0F0D-4CE9-B0C5-67BFC26613D2}" name="Amount" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{2A65F675-AE51-4D77-95FB-8110E3415EB5}" name="Feb" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{672C7689-CDF5-4104-B79D-825C96DBDE38}" name="Collected By" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{32A8D9E3-E379-4C4E-A187-B967ACE35852}" name="Amount2" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{EFC80208-5554-4BF0-9C34-60819E614FAF}" name="Mar" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{83238C3E-99BA-4A90-AD01-981FB29EC63F}" name="Collected By3" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{C3035C12-1BDA-4A69-AF12-A605333AA6BA}" name="Amount4" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3750,11 +3755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5E70A2-5C2B-433D-AF4A-5C24473DABA6}">
-  <dimension ref="A1:AK523"/>
+  <dimension ref="A1:AK531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B521" sqref="B521"/>
+      <pane ySplit="2" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E528" sqref="E528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3790,8 +3795,8 @@
     <row r="1" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="21"/>
       <c r="C1" s="44">
-        <f>SUBTOTAL(3,C3:C523)</f>
-        <v>517</v>
+        <f>SUBTOTAL(3,C3:C531)</f>
+        <v>523</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="11"/>
@@ -3803,16 +3808,16 @@
         <v>73590</v>
       </c>
       <c r="J1" s="35">
-        <f>SUBTOTAL(9,J3:J638)</f>
-        <v>2436495</v>
+        <f>SUBTOTAL(9,J3:J639)</f>
+        <v>2437995</v>
       </c>
       <c r="K1" s="1">
-        <f>SUBTOTAL(9,K3:K638)</f>
-        <v>2175758</v>
+        <f>SUBTOTAL(9,K3:K639)</f>
+        <v>2328455</v>
       </c>
       <c r="L1" s="1">
-        <f>SUBTOTAL(9,L3:L640)</f>
-        <v>151197</v>
+        <f>SUBTOTAL(9,L3:L641)</f>
+        <v>0</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -20597,7 +20602,7 @@
       <c r="D490" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="E490" s="65" t="str">
+      <c r="E490" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
         <v>Doctors Clinic (Jalokhathi)</v>
       </c>
@@ -20613,12 +20618,12 @@
       <c r="K490" s="3">
         <v>2640</v>
       </c>
-      <c r="L490" s="65">
+      <c r="L490" s="3">
         <f>J490-K490-Table112[[#This Row],[3rd Party]]</f>
         <v>-2640</v>
       </c>
       <c r="M490" s="3"/>
-      <c r="N490" s="66" t="s">
+      <c r="N490" s="8" t="s">
         <v>448</v>
       </c>
     </row>
@@ -21081,7 +21086,7 @@
       <c r="D504" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="E504" s="65" t="str">
+      <c r="E504" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
         <v>Truma (Naogaon)</v>
       </c>
@@ -21097,12 +21102,12 @@
       <c r="K504" s="3">
         <v>2936</v>
       </c>
-      <c r="L504" s="65">
+      <c r="L504" s="3">
         <f>J504-K504-Table112[[#This Row],[3rd Party]]</f>
         <v>-2936</v>
       </c>
       <c r="M504" s="3"/>
-      <c r="N504" s="66" t="s">
+      <c r="N504" s="8" t="s">
         <v>450</v>
       </c>
     </row>
@@ -21116,7 +21121,7 @@
       <c r="D505" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E505" s="65" t="str">
+      <c r="E505" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
         <v>Medicus</v>
       </c>
@@ -21132,12 +21137,12 @@
       <c r="K505" s="3">
         <v>22</v>
       </c>
-      <c r="L505" s="65">
+      <c r="L505" s="3">
         <f>J505-K505-Table112[[#This Row],[3rd Party]]</f>
         <v>1478</v>
       </c>
       <c r="M505" s="3"/>
-      <c r="N505" s="66"/>
+      <c r="N505" s="8"/>
     </row>
     <row r="506" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B506" s="22">
@@ -21248,112 +21253,110 @@
         <v>507</v>
       </c>
       <c r="D509" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="E509" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>SMC</v>
+        <v>331</v>
+      </c>
+      <c r="E509" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Arambag Hospital Faridpur</v>
       </c>
       <c r="F509" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
       <c r="I509" s="3"/>
-      <c r="J509" s="37"/>
-      <c r="K509" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L509" s="65">
+      <c r="J509" s="37">
+        <v>1500</v>
+      </c>
+      <c r="K509" s="3"/>
+      <c r="L509" s="3">
         <f>J509-K509-Table112[[#This Row],[3rd Party]]</f>
-        <v>-1600</v>
+        <v>1500</v>
       </c>
       <c r="M509" s="3"/>
-      <c r="N509" s="66" t="s">
-        <v>449</v>
-      </c>
+      <c r="N509" s="8"/>
     </row>
     <row r="510" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B510" s="22">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="C510" s="9">
         <v>508</v>
       </c>
       <c r="D510" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E510" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>UltraVision (Jhenaidah)</v>
+        <v>445</v>
+      </c>
+      <c r="E510" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>SMC</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
-      <c r="I510" s="3">
-        <v>500</v>
-      </c>
-      <c r="J510" s="37">
-        <v>2000</v>
-      </c>
+      <c r="I510" s="3"/>
+      <c r="J510" s="37"/>
       <c r="K510" s="3">
-        <v>30</v>
-      </c>
-      <c r="L510" s="65">
+        <v>1600</v>
+      </c>
+      <c r="L510" s="3">
         <f>J510-K510-Table112[[#This Row],[3rd Party]]</f>
-        <v>1470</v>
+        <v>-1600</v>
       </c>
       <c r="M510" s="3"/>
-      <c r="N510" s="66"/>
+      <c r="N510" s="8" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="511" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B511" s="22">
-        <v>44950</v>
+        <v>44949</v>
       </c>
       <c r="C511" s="9">
         <v>509</v>
       </c>
       <c r="D511" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E511" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v xml:space="preserve">Medi Point </v>
+        <v>248</v>
+      </c>
+      <c r="E511" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>UltraVision (Jhenaidah)</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
-      <c r="I511" s="3"/>
+      <c r="I511" s="3">
+        <v>500</v>
+      </c>
       <c r="J511" s="37">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="K511" s="3">
-        <v>149</v>
-      </c>
-      <c r="L511" s="65">
+        <v>30</v>
+      </c>
+      <c r="L511" s="3">
         <f>J511-K511-Table112[[#This Row],[3rd Party]]</f>
-        <v>9851</v>
+        <v>1470</v>
       </c>
       <c r="M511" s="3"/>
-      <c r="N511" s="66"/>
+      <c r="N511" s="8"/>
     </row>
     <row r="512" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B512" s="22">
-        <v>44951</v>
+        <v>44950</v>
       </c>
       <c r="C512" s="9">
         <v>510</v>
       </c>
       <c r="D512" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E512" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Bio-Aid</v>
+        <v>79</v>
+      </c>
+      <c r="E512" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v xml:space="preserve">Medi Point </v>
       </c>
       <c r="F512" s="3" t="s">
         <v>38</v>
@@ -21362,15 +21365,17 @@
       <c r="H512" s="3"/>
       <c r="I512" s="3"/>
       <c r="J512" s="37">
-        <v>15000</v>
-      </c>
-      <c r="K512" s="3"/>
-      <c r="L512" s="65">
+        <v>10000</v>
+      </c>
+      <c r="K512" s="3">
+        <v>149</v>
+      </c>
+      <c r="L512" s="3">
         <f>J512-K512-Table112[[#This Row],[3rd Party]]</f>
-        <v>15000</v>
+        <v>9851</v>
       </c>
       <c r="M512" s="3"/>
-      <c r="N512" s="66"/>
+      <c r="N512" s="8"/>
     </row>
     <row r="513" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B513" s="22">
@@ -21380,131 +21385,129 @@
         <v>511</v>
       </c>
       <c r="D513" s="10" t="s">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="E513" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Popular (Nowgong)</v>
+        <v>Bio-Aid</v>
       </c>
       <c r="F513" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G513" s="3" t="s">
-        <v>444</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G513" s="3"/>
       <c r="H513" s="3"/>
       <c r="I513" s="3"/>
       <c r="J513" s="37">
-        <v>4000</v>
-      </c>
-      <c r="K513" s="3">
-        <v>60</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="K513" s="3"/>
       <c r="L513" s="3">
         <f>J513-K513-Table112[[#This Row],[3rd Party]]</f>
-        <v>3940</v>
+        <v>15000</v>
       </c>
       <c r="M513" s="3"/>
       <c r="N513" s="8"/>
     </row>
     <row r="514" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B514" s="22">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="C514" s="9">
         <v>512</v>
       </c>
       <c r="D514" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="E514" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Health Care (Ishwardi)</v>
+        <v>365</v>
+      </c>
+      <c r="E514" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Popular (Nowgong)</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G514" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="H514" s="3"/>
       <c r="I514" s="3"/>
-      <c r="J514" s="37"/>
+      <c r="J514" s="37">
+        <v>4000</v>
+      </c>
       <c r="K514" s="3">
-        <v>2185</v>
-      </c>
-      <c r="L514" s="65">
+        <v>60</v>
+      </c>
+      <c r="L514" s="3">
         <f>J514-K514-Table112[[#This Row],[3rd Party]]</f>
-        <v>-2185</v>
+        <v>3940</v>
       </c>
       <c r="M514" s="3"/>
-      <c r="N514" s="66" t="s">
-        <v>451</v>
-      </c>
+      <c r="N514" s="8"/>
     </row>
     <row r="515" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B515" s="22">
-        <v>44954</v>
+        <v>44952</v>
       </c>
       <c r="C515" s="9">
         <v>513</v>
       </c>
       <c r="D515" s="10" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="E515" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Medi Point D/C</v>
+        <v>Health Care (Ishwardi)</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
       <c r="I515" s="3"/>
-      <c r="J515" s="37">
-        <v>1000</v>
-      </c>
+      <c r="J515" s="37"/>
       <c r="K515" s="3">
-        <v>15</v>
+        <v>2185</v>
       </c>
       <c r="L515" s="3">
         <f>J515-K515-Table112[[#This Row],[3rd Party]]</f>
-        <v>985</v>
+        <v>-2185</v>
       </c>
       <c r="M515" s="3"/>
-      <c r="N515" s="8"/>
+      <c r="N515" s="8" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="516" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B516" s="22">
-        <v>44956</v>
+        <v>44954</v>
       </c>
       <c r="C516" s="9">
         <v>514</v>
       </c>
       <c r="D516" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="E516" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>SMC</v>
+        <v>211</v>
+      </c>
+      <c r="E516" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Medi Point D/C</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
-      <c r="J516" s="37"/>
+      <c r="J516" s="37">
+        <v>1000</v>
+      </c>
       <c r="K516" s="3">
-        <v>2225</v>
-      </c>
-      <c r="L516" s="65">
+        <v>15</v>
+      </c>
+      <c r="L516" s="3">
         <f>J516-K516-Table112[[#This Row],[3rd Party]]</f>
-        <v>-2225</v>
+        <v>985</v>
       </c>
       <c r="M516" s="3"/>
-      <c r="N516" s="66" t="s">
-        <v>452</v>
-      </c>
+      <c r="N516" s="8"/>
     </row>
     <row r="517" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B517" s="22">
@@ -21516,63 +21519,61 @@
       <c r="D517" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="E517" s="65" t="str">
+      <c r="E517" s="3" t="str">
         <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
         <v>SMC</v>
       </c>
       <c r="F517" s="3" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
-      <c r="I517" s="3">
-        <v>25000</v>
-      </c>
-      <c r="J517" s="37">
-        <v>50000</v>
-      </c>
-      <c r="K517" s="3"/>
-      <c r="L517" s="65">
+      <c r="I517" s="3"/>
+      <c r="J517" s="37"/>
+      <c r="K517" s="3">
+        <v>2225</v>
+      </c>
+      <c r="L517" s="3">
         <f>J517-K517-Table112[[#This Row],[3rd Party]]</f>
-        <v>25000</v>
+        <v>-2225</v>
       </c>
       <c r="M517" s="3"/>
-      <c r="N517" s="66"/>
+      <c r="N517" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="518" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B518" s="22">
-        <v>44957</v>
+        <v>44956</v>
       </c>
       <c r="C518" s="9">
         <v>516</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E518" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Ayesha D/C (Jhenaidah)</v>
+        <v>445</v>
+      </c>
+      <c r="E518" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>SMC</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
       <c r="I518" s="3">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="J518" s="37">
-        <v>2000</v>
-      </c>
-      <c r="K518" s="3">
-        <v>30</v>
-      </c>
-      <c r="L518" s="65">
+        <v>50000</v>
+      </c>
+      <c r="K518" s="3"/>
+      <c r="L518" s="3">
         <f>J518-K518-Table112[[#This Row],[3rd Party]]</f>
-        <v>1470</v>
+        <v>25000</v>
       </c>
       <c r="M518" s="3"/>
-      <c r="N518" s="66"/>
+      <c r="N518" s="8"/>
     </row>
     <row r="519" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B519" s="22">
@@ -21582,109 +21583,337 @@
         <v>517</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E519" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v>Bio-Tech</v>
+        <v>197</v>
+      </c>
+      <c r="E519" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Ayesha D/C (Jhenaidah)</v>
       </c>
       <c r="F519" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
-      <c r="I519" s="3"/>
+      <c r="I519" s="3">
+        <v>500</v>
+      </c>
       <c r="J519" s="37">
-        <v>20000</v>
-      </c>
-      <c r="K519" s="3"/>
-      <c r="L519" s="65">
+        <v>2000</v>
+      </c>
+      <c r="K519" s="3">
+        <v>30</v>
+      </c>
+      <c r="L519" s="3">
         <f>J519-K519-Table112[[#This Row],[3rd Party]]</f>
-        <v>20000</v>
+        <v>1470</v>
       </c>
       <c r="M519" s="3"/>
-      <c r="N519" s="66"/>
+      <c r="N519" s="8"/>
     </row>
     <row r="520" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D520" s="10"/>
-      <c r="E520" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F520" s="3"/>
+      <c r="B520" s="22">
+        <v>44957</v>
+      </c>
+      <c r="C520" s="9">
+        <v>518</v>
+      </c>
+      <c r="D520" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E520" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Bio-Tech</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
       <c r="I520" s="3"/>
-      <c r="J520" s="37"/>
+      <c r="J520" s="37">
+        <v>20000</v>
+      </c>
       <c r="K520" s="3"/>
-      <c r="L520" s="65">
+      <c r="L520" s="3">
         <f>J520-K520-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="M520" s="3"/>
-      <c r="N520" s="66"/>
+      <c r="N520" s="8"/>
     </row>
     <row r="521" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D521" s="10"/>
-      <c r="E521" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F521" s="3"/>
+      <c r="B521" s="22">
+        <v>44957</v>
+      </c>
+      <c r="C521" s="9">
+        <v>519</v>
+      </c>
+      <c r="D521" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E521" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Office Cost</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
       <c r="I521" s="3"/>
       <c r="J521" s="37"/>
-      <c r="K521" s="3"/>
-      <c r="L521" s="65">
+      <c r="K521" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L521" s="3">
         <f>J521-K521-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="M521" s="3"/>
-      <c r="N521" s="66"/>
+      <c r="N521" s="8"/>
     </row>
     <row r="522" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D522" s="10"/>
-      <c r="E522" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F522" s="3"/>
+      <c r="B522" s="22">
+        <v>44957</v>
+      </c>
+      <c r="C522" s="9">
+        <v>520</v>
+      </c>
+      <c r="D522" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E522" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Office Cost</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
       <c r="I522" s="3"/>
       <c r="J522" s="37"/>
-      <c r="K522" s="3"/>
-      <c r="L522" s="65">
+      <c r="K522" s="3">
+        <v>300</v>
+      </c>
+      <c r="L522" s="3">
         <f>J522-K522-Table112[[#This Row],[3rd Party]]</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M522" s="3"/>
-      <c r="N522" s="66"/>
+      <c r="N522" s="8"/>
     </row>
     <row r="523" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D523" s="10"/>
-      <c r="E523" s="65" t="str">
-        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F523" s="3"/>
+      <c r="B523" s="22">
+        <v>44957</v>
+      </c>
+      <c r="C523" s="9">
+        <v>521</v>
+      </c>
+      <c r="D523" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E523" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Aman Ullah</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
       <c r="I523" s="3"/>
       <c r="J523" s="37"/>
-      <c r="K523" s="3"/>
-      <c r="L523" s="65">
+      <c r="K523" s="3">
+        <v>51588</v>
+      </c>
+      <c r="L523" s="3">
         <f>J523-K523-Table112[[#This Row],[3rd Party]]</f>
+        <v>-51588</v>
+      </c>
+      <c r="M523" s="3"/>
+      <c r="N523" s="8"/>
+    </row>
+    <row r="524" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="22">
+        <v>44957</v>
+      </c>
+      <c r="C524" s="9">
+        <v>522</v>
+      </c>
+      <c r="D524" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E524" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Khaled</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G524" s="3"/>
+      <c r="H524" s="3"/>
+      <c r="I524" s="3"/>
+      <c r="J524" s="37"/>
+      <c r="K524" s="3">
+        <v>51588</v>
+      </c>
+      <c r="L524" s="3">
+        <f>J524-K524-Table112[[#This Row],[3rd Party]]</f>
+        <v>-51588</v>
+      </c>
+      <c r="M524" s="3"/>
+      <c r="N524" s="8"/>
+    </row>
+    <row r="525" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="22">
+        <v>44957</v>
+      </c>
+      <c r="C525" s="9">
+        <v>523</v>
+      </c>
+      <c r="D525" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E525" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v>Roki</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G525" s="3"/>
+      <c r="H525" s="3"/>
+      <c r="I525" s="3"/>
+      <c r="J525" s="37"/>
+      <c r="K525" s="3">
+        <v>44221</v>
+      </c>
+      <c r="L525" s="65">
+        <f>J525-K525-Table112[[#This Row],[3rd Party]]</f>
+        <v>-44221</v>
+      </c>
+      <c r="M525" s="3"/>
+      <c r="N525" s="66"/>
+    </row>
+    <row r="526" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D526" s="10"/>
+      <c r="E526" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F526" s="3"/>
+      <c r="G526" s="3"/>
+      <c r="H526" s="3"/>
+      <c r="I526" s="3"/>
+      <c r="J526" s="37"/>
+      <c r="K526" s="3"/>
+      <c r="L526" s="65">
+        <f>J526-K526-Table112[[#This Row],[3rd Party]]</f>
         <v>0</v>
       </c>
-      <c r="M523" s="3"/>
-      <c r="N523" s="66"/>
+      <c r="M526" s="3"/>
+      <c r="N526" s="66"/>
+    </row>
+    <row r="527" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D527" s="10"/>
+      <c r="E527" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F527" s="3"/>
+      <c r="G527" s="3"/>
+      <c r="H527" s="3"/>
+      <c r="I527" s="3"/>
+      <c r="J527" s="37"/>
+      <c r="K527" s="3"/>
+      <c r="L527" s="65">
+        <f>J527-K527-Table112[[#This Row],[3rd Party]]</f>
+        <v>0</v>
+      </c>
+      <c r="M527" s="3"/>
+      <c r="N527" s="66"/>
+    </row>
+    <row r="528" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D528" s="10"/>
+      <c r="E528" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F528" s="3"/>
+      <c r="G528" s="3"/>
+      <c r="H528" s="3"/>
+      <c r="I528" s="3"/>
+      <c r="J528" s="37"/>
+      <c r="K528" s="3"/>
+      <c r="L528" s="65">
+        <f>J528-K528-Table112[[#This Row],[3rd Party]]</f>
+        <v>0</v>
+      </c>
+      <c r="M528" s="3"/>
+      <c r="N528" s="66"/>
+    </row>
+    <row r="529" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D529" s="10"/>
+      <c r="E529" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F529" s="3"/>
+      <c r="G529" s="3"/>
+      <c r="H529" s="3"/>
+      <c r="I529" s="3"/>
+      <c r="J529" s="37"/>
+      <c r="K529" s="3"/>
+      <c r="L529" s="65">
+        <f>J529-K529-Table112[[#This Row],[3rd Party]]</f>
+        <v>0</v>
+      </c>
+      <c r="M529" s="3"/>
+      <c r="N529" s="66"/>
+    </row>
+    <row r="530" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D530" s="10"/>
+      <c r="E530" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F530" s="3"/>
+      <c r="G530" s="3"/>
+      <c r="H530" s="3"/>
+      <c r="I530" s="3"/>
+      <c r="J530" s="37"/>
+      <c r="K530" s="3"/>
+      <c r="L530" s="65">
+        <f>J530-K530-Table112[[#This Row],[3rd Party]]</f>
+        <v>0</v>
+      </c>
+      <c r="M530" s="3"/>
+      <c r="N530" s="66"/>
+    </row>
+    <row r="531" spans="4:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D531" s="10"/>
+      <c r="E531" s="65" t="str">
+        <f>IFERROR(VLOOKUP(Table112[[#This Row],[User ID]],Table7[[Column1]:[Column2]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F531" s="3"/>
+      <c r="G531" s="3"/>
+      <c r="H531" s="3"/>
+      <c r="I531" s="3"/>
+      <c r="J531" s="37"/>
+      <c r="K531" s="3"/>
+      <c r="L531" s="65">
+        <f>J531-K531-Table112[[#This Row],[3rd Party]]</f>
+        <v>0</v>
+      </c>
+      <c r="M531" s="3"/>
+      <c r="N531" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M1 L2:M523">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="M1 L2:M531">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21788,7 +22017,7 @@
       </c>
       <c r="H3" s="53">
         <f ca="1">G3-TODAY()</f>
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
@@ -21820,7 +22049,7 @@
       </c>
       <c r="H4" s="53">
         <f t="shared" ref="H4:H24" ca="1" si="0">G4-TODAY()</f>
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
@@ -21852,7 +22081,7 @@
       </c>
       <c r="H5" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
@@ -21884,7 +22113,7 @@
       </c>
       <c r="H6" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -21916,7 +22145,7 @@
       </c>
       <c r="H7" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
@@ -21948,7 +22177,7 @@
       </c>
       <c r="H8" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
@@ -21980,7 +22209,7 @@
       </c>
       <c r="H9" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-39</v>
+        <v>-41</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="53"/>
@@ -22012,7 +22241,7 @@
       </c>
       <c r="H10" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
@@ -22044,7 +22273,7 @@
       </c>
       <c r="H11" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
@@ -22074,7 +22303,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-44959</v>
+        <v>-44961</v>
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
@@ -22106,7 +22335,7 @@
       </c>
       <c r="H13" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
@@ -22138,7 +22367,7 @@
       </c>
       <c r="H14" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-59</v>
+        <v>-61</v>
       </c>
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
@@ -22170,7 +22399,7 @@
       </c>
       <c r="H15" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-33</v>
+        <v>-35</v>
       </c>
       <c r="I15" s="53"/>
       <c r="J15" s="53"/>
@@ -22200,7 +22429,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-44959</v>
+        <v>-44961</v>
       </c>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
@@ -22230,7 +22459,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-44959</v>
+        <v>-44961</v>
       </c>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
@@ -22262,7 +22491,7 @@
       </c>
       <c r="H18" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="I18" s="53"/>
       <c r="J18" s="53"/>
@@ -22294,7 +22523,7 @@
       </c>
       <c r="H19" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
@@ -22326,7 +22555,7 @@
       </c>
       <c r="H20" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-84</v>
+        <v>-86</v>
       </c>
       <c r="I20" s="53"/>
       <c r="J20" s="53"/>
@@ -22358,7 +22587,7 @@
       </c>
       <c r="H21" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
@@ -22390,7 +22619,7 @@
       </c>
       <c r="H22" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
@@ -22422,7 +22651,7 @@
       </c>
       <c r="H23" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>-38</v>
+        <v>-40</v>
       </c>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
@@ -22454,7 +22683,7 @@
       </c>
       <c r="H24" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="I24" s="59"/>
       <c r="J24" s="59"/>
@@ -22483,7 +22712,7 @@
       </c>
       <c r="H25" s="59">
         <f ca="1">G25-TODAY()</f>
-        <v>-44959</v>
+        <v>-44961</v>
       </c>
       <c r="I25" s="59"/>
       <c r="J25" s="59"/>
@@ -22499,19 +22728,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H3:H25">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="lessThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22855,7 +23084,7 @@
     <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22931,7 +23160,7 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22956,7 +23185,7 @@
       </c>
       <c r="C2" s="62"/>
       <c r="F2" s="63">
-        <v>142427</v>
+        <v>147397</v>
       </c>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
@@ -22976,15 +23205,15 @@
       </c>
       <c r="F3" s="33">
         <f>F2*0.35</f>
-        <v>49849.45</v>
+        <v>51588.95</v>
       </c>
       <c r="G3" s="33">
         <f>F2*0.35</f>
-        <v>49849.45</v>
+        <v>51588.95</v>
       </c>
       <c r="H3" s="33">
         <f>F2*0.3</f>
-        <v>42728.1</v>
+        <v>44219.1</v>
       </c>
       <c r="J3" s="33">
         <f>J2*0.35</f>
